--- a/medicine/Mort/Roi_Soleil_(film)/Roi_Soleil_(film).xlsx
+++ b/medicine/Mort/Roi_Soleil_(film)/Roi_Soleil_(film).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Roi Soleil est un film espagnol réalisé par Albert Serra, sorti en 2018.
 </t>
@@ -511,9 +523,11 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le sujet du film est l'agonie du roi Louis XIV, déjà traitée par Albert Serra dans La Mort de Louis XIV[1]. Le décor est celui de la galerie Graça Brandao de Lisbonne[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le sujet du film est l'agonie du roi Louis XIV, déjà traitée par Albert Serra dans La Mort de Louis XIV. Le décor est celui de la galerie Graça Brandao de Lisbonne.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Roi Soleil
 Réalisation : Albert Serra
@@ -582,7 +598,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Lluís Serrat : Louis XIV</t>
         </is>
